--- a/assets/测试@test.xlsx
+++ b/assets/测试@test.xlsx
@@ -4,6 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Obj-user" sheetId="1" r:id="rId1"/>
+    <sheet name="Tbl-city" sheetId="2" r:id="rId2"/>
+    <sheet name="Enum-food" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -454,4 +456,130 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>测试lua数据表</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>索引</v>
+      </c>
+      <c r="B2" t="str">
+        <v>城市名</v>
+      </c>
+      <c r="C2" t="str">
+        <v>gdp</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>num</v>
+      </c>
+      <c r="B3" t="str">
+        <v>str</v>
+      </c>
+      <c r="C3" t="str">
+        <v>num</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>xid</v>
+      </c>
+      <c r="B4" t="str">
+        <v>cityName</v>
+      </c>
+      <c r="C4" t="str">
+        <v>gdp</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>广州</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>上海</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1200.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>测试lua枚举</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>key</v>
+      </c>
+      <c r="B2" t="str">
+        <v>value</v>
+      </c>
+      <c r="C2" t="str">
+        <v>desc</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>ZN</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>中文</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>EN</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>英语</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/assets/测试@test.xlsx
+++ b/assets/测试@test.xlsx
@@ -5,7 +5,8 @@
   <sheets>
     <sheet name="Obj-user" sheetId="1" r:id="rId1"/>
     <sheet name="Tbl-city" sheetId="2" r:id="rId2"/>
-    <sheet name="Enum-food" sheetId="3" r:id="rId3"/>
+    <sheet name="Tbl-sub" sheetId="3" r:id="rId3"/>
+    <sheet name="Enum-food" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -442,7 +443,7 @@
         <v>age</v>
       </c>
       <c r="B4" t="str">
-        <v>int</v>
+        <v>num</v>
       </c>
       <c r="C4" t="str">
         <v>20</v>
@@ -459,6 +460,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>测试lua数据表</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>索引</v>
+      </c>
+      <c r="B2" t="str">
+        <v>城市名</v>
+      </c>
+      <c r="C2" t="str">
+        <v>gdp</v>
+      </c>
+      <c r="D2" t="str">
+        <v>内嵌表测试</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>str</v>
+      </c>
+      <c r="B3" t="str">
+        <v>str</v>
+      </c>
+      <c r="C3" t="str">
+        <v>num</v>
+      </c>
+      <c r="D3" t="str">
+        <v>test::sub</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>xid</v>
+      </c>
+      <c r="B4" t="str">
+        <v>cityName</v>
+      </c>
+      <c r="C4" t="str">
+        <v>gdp</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sub</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>t1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>广州</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>t2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>上海</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1200.3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -467,7 +557,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>测试lua数据表</v>
+        <v>内嵌表</v>
       </c>
     </row>
     <row r="2">
@@ -508,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>广州</v>
+        <v>guangzhou</v>
       </c>
       <c r="C5" t="str">
         <v>1000</v>
@@ -519,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="str">
-        <v>上海</v>
+        <v>tianjing</v>
       </c>
       <c r="C6" t="str">
         <v>1200.3</v>
@@ -532,7 +622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
